--- a/biology/Botanique/Gossypium_barbadense/Gossypium_barbadense.xlsx
+++ b/biology/Botanique/Gossypium_barbadense/Gossypium_barbadense.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gossypium barbadense, le cotonnier créole, est une espèce d'arbuste de la famille des Malvaceae. Il atteint environ 1,5 m de haut, donnant un coton coloré, qui pousse en Amérique du Sud et dans les Antilles. Les fleurs sont jaunes ou blanches, les tiges rougeâtres. C'est une plante vivace ou annuelle, peu exigeante.
-En raison de la longueur de sa fibre, au moins 3,5 cm en général[1], il est aussi connu sous le nom de coton à fibre extra-longue (Extra long staple ou ELS), en particulier aux États-Unis où il fait l'objet d'une définition légale[2]. Quelques types notables de coton ELS sont le Pima américain, le Giza égyptien, le Suvin indien, le Xiniang chinois, le Barakat soudanais et le Tonkovoloknistyi russe[1]. Le coton Sea island fait partie du coton Gossypium barbadense[3].
+En raison de la longueur de sa fibre, au moins 3,5 cm en général, il est aussi connu sous le nom de coton à fibre extra-longue (Extra long staple ou ELS), en particulier aux États-Unis où il fait l'objet d'une définition légale. Quelques types notables de coton ELS sont le Pima américain, le Giza égyptien, le Suvin indien, le Xiniang chinois, le Barakat soudanais et le Tonkovoloknistyi russe. Le coton Sea island fait partie du coton Gossypium barbadense.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Gossypium evertum O.F.Cook &amp; J.Hubb.
 Gossypium peruvianum Cav.
@@ -544,7 +558,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ a et b (en) Brian Goggin, « Extra-long staple cotton report - production and export statistics for marketing year 1989/90-1991/92 including USSR, Egypt, Israel, Peru and Sudan; U.S. pima cotton production and export statistics », U.S. Dept. of Agriculture, Foreign Agricultural Service report, 1991 (consulté le 2 novembre 2011)
